--- a/data/evaluation/evaluation_North_Summer_Cucumbers.xlsx
+++ b/data/evaluation/evaluation_North_Summer_Cucumbers.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1098.347794245474</v>
+        <v>1101.068587765018</v>
       </c>
       <c r="C4" t="n">
-        <v>2884136.476711999</v>
+        <v>2895455.999260822</v>
       </c>
       <c r="D4" t="n">
-        <v>1698.274558695383</v>
+        <v>1701.603949002476</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03045450655129722</v>
+        <v>0.02664928021619872</v>
       </c>
     </row>
     <row r="5">
